--- a/IotDemo-Final/ClientApp/src/assets/samples/upload-device-sample.xlsx
+++ b/IotDemo-Final/ClientApp/src/assets/samples/upload-device-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\IotDemo-Final\IotDemo-Final\ClientApp\src\assets\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Office\ITO-POC\Smart Ambient Lightning\IotDemo-Final\ClientApp\src\assets\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3954C2-F5AB-421E-8EEA-938021823F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58AD4C9-5FAA-4BA4-9B03-A22A1983572B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6510" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Renesas device</t>
   </si>
   <si>
-    <t>temperature, heat, object presence</t>
-  </si>
-  <si>
     <t>createdBy</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>SF-045</t>
+  </si>
+  <si>
+    <t>Light Intensity</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -485,12 +485,12 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -505,12 +505,12 @@
         <v>1.2</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
